--- a/CodeSystem-CSProbSalud.xlsx
+++ b/CodeSystem-CSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T09:34:47-03:00</t>
+    <t>2025-01-31T15:38:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,7 +639,7 @@
     <t>86</t>
   </si>
   <si>
-    <t xml:space="preserve">Atención Integral de Salud en Agresión Sexual Aguda </t>
+    <t>Atención Integral de Salud en Agresión Sexual Aguda</t>
   </si>
   <si>
     <t>83</t>

--- a/CodeSystem-CSProbSalud.xlsx
+++ b/CodeSystem-CSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:38:22-03:00</t>
+    <t>2025-03-06T08:20:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-CSProbSalud.xlsx
+++ b/CodeSystem-CSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T08:20:26-03:00</t>
+    <t>2025-03-06T09:05:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
